--- a/UCUA/src/data/ExportExcel.xlsx
+++ b/UCUA/src/data/ExportExcel.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>invalid</t>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -55,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,32 +383,22 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="C2">
-        <v>123457</v>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>123457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>1</v>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/UCUA/src/data/ExportExcel.xlsx
+++ b/UCUA/src/data/ExportExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>admin</t>
   </si>
@@ -22,13 +22,28 @@
     <t>123456</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>accounttest3@gmail.com</t>
+  </si>
+  <si>
+    <t>accounttest4@gmail.com</t>
+  </si>
+  <si>
+    <t>accounttest5@gmail.com</t>
+  </si>
+  <si>
+    <t>accounttest6@gmail.com</t>
+  </si>
+  <si>
+    <t>accounttest7@gmail.com</t>
+  </si>
+  <si>
+    <t>aabbccounttest2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -371,16 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -392,13 +409,68 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
